--- a/多因子合成方法简介.xlsx
+++ b/多因子合成方法简介.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Desktop/intern/test5/fxdayu_adam/多因子合成/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>使用了ir_weight的方法进行了多因子的合成。</t>
   </si>
   <si>
     <t>使用了独创的因子回归方法，全样本效果优于ir_weight, 2017年以后弱于第一种方法。</t>
+  </si>
+  <si>
+    <t>相对于1添加在熊市中相对稳定的价值类型因子</t>
+  </si>
+  <si>
+    <t>相对于2添加了在熊市中相对稳定的价值类因子</t>
   </si>
 </sst>
 </file>
@@ -344,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -368,6 +374,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
